--- a/spreadsheets/new/GSE131736.0.xlsx
+++ b/spreadsheets/new/GSE131736.0.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geryl/PycharmProjects/load-project/spreadsheets/new/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C24EAF3-C271-214E-9618-97C11045A94A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="31920" windowHeight="14240" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cell_line" sheetId="1" r:id="rId1"/>
@@ -18,12 +24,12 @@
     <sheet name="Sequencing_protocol" sheetId="9" r:id="rId9"/>
     <sheet name="Specimen_from_organism" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2219" uniqueCount="1141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2221" uniqueCount="1142">
   <si>
     <t>CELL_LINE.BIOMATERIAL_CORE.BIOMATERIAL_ID.USER_FRIENDLY (Required)</t>
   </si>
@@ -3446,13 +3452,16 @@
   </si>
   <si>
     <t>10X_HDLEC</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3489,6 +3498,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3535,7 +3552,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3567,9 +3584,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3601,6 +3636,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3776,97 +3829,95 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CC21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="67.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="65.7109375" customWidth="1"/>
-    <col min="4" max="4" width="41.7109375" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" customWidth="1"/>
-    <col min="6" max="6" width="62.7109375" customWidth="1"/>
-    <col min="7" max="7" width="176.7109375" customWidth="1"/>
-    <col min="8" max="8" width="171.7109375" customWidth="1"/>
-    <col min="9" max="9" width="134.7109375" customWidth="1"/>
-    <col min="10" max="10" width="31.7109375" customWidth="1"/>
-    <col min="11" max="11" width="49.7109375" customWidth="1"/>
-    <col min="12" max="12" width="52.7109375" customWidth="1"/>
-    <col min="13" max="13" width="120.7109375" customWidth="1"/>
-    <col min="14" max="14" width="70.7109375" customWidth="1"/>
-    <col min="15" max="15" width="58.7109375" customWidth="1"/>
-    <col min="16" max="16" width="141.7109375" customWidth="1"/>
-    <col min="17" max="17" width="120.7109375" customWidth="1"/>
-    <col min="18" max="18" width="69.7109375" customWidth="1"/>
-    <col min="19" max="19" width="58.7109375" customWidth="1"/>
-    <col min="20" max="20" width="141.7109375" customWidth="1"/>
-    <col min="21" max="21" width="57.7109375" customWidth="1"/>
-    <col min="22" max="22" width="85.7109375" customWidth="1"/>
-    <col min="23" max="23" width="69.7109375" customWidth="1"/>
-    <col min="24" max="24" width="58.7109375" customWidth="1"/>
-    <col min="25" max="25" width="141.7109375" customWidth="1"/>
-    <col min="26" max="26" width="70.7109375" customWidth="1"/>
-    <col min="27" max="27" width="57.7109375" customWidth="1"/>
-    <col min="28" max="28" width="48.7109375" customWidth="1"/>
-    <col min="29" max="29" width="68.7109375" customWidth="1"/>
-    <col min="30" max="30" width="62.7109375" customWidth="1"/>
-    <col min="31" max="31" width="81.7109375" customWidth="1"/>
-    <col min="32" max="32" width="61.7109375" customWidth="1"/>
-    <col min="33" max="33" width="195.7109375" customWidth="1"/>
-    <col min="34" max="34" width="62.7109375" customWidth="1"/>
-    <col min="35" max="35" width="150.7109375" customWidth="1"/>
-    <col min="36" max="36" width="78.7109375" customWidth="1"/>
-    <col min="37" max="37" width="49.7109375" customWidth="1"/>
-    <col min="38" max="38" width="69.7109375" customWidth="1"/>
-    <col min="39" max="39" width="58.7109375" customWidth="1"/>
-    <col min="40" max="40" width="141.7109375" customWidth="1"/>
-    <col min="41" max="41" width="60.7109375" customWidth="1"/>
-    <col min="42" max="42" width="68.7109375" customWidth="1"/>
-    <col min="43" max="43" width="58.7109375" customWidth="1"/>
-    <col min="44" max="44" width="141.7109375" customWidth="1"/>
-    <col min="45" max="45" width="129.7109375" customWidth="1"/>
-    <col min="46" max="46" width="67.7109375" customWidth="1"/>
-    <col min="47" max="47" width="58.7109375" customWidth="1"/>
-    <col min="48" max="48" width="141.7109375" customWidth="1"/>
-    <col min="49" max="49" width="63.7109375" customWidth="1"/>
-    <col min="50" max="50" width="58.7109375" customWidth="1"/>
-    <col min="51" max="51" width="141.7109375" customWidth="1"/>
-    <col min="52" max="52" width="67.7109375" customWidth="1"/>
-    <col min="53" max="53" width="55.7109375" customWidth="1"/>
-    <col min="54" max="54" width="68.7109375" customWidth="1"/>
-    <col min="55" max="55" width="34.7109375" customWidth="1"/>
-    <col min="56" max="56" width="68.7109375" customWidth="1"/>
-    <col min="57" max="57" width="108.7109375" customWidth="1"/>
-    <col min="58" max="58" width="69.7109375" customWidth="1"/>
-    <col min="59" max="59" width="58.7109375" customWidth="1"/>
-    <col min="60" max="60" width="141.7109375" customWidth="1"/>
-    <col min="61" max="61" width="117.7109375" customWidth="1"/>
-    <col min="62" max="62" width="80.7109375" customWidth="1"/>
-    <col min="63" max="63" width="73.7109375" customWidth="1"/>
-    <col min="64" max="64" width="71.7109375" customWidth="1"/>
-    <col min="65" max="65" width="75.7109375" customWidth="1"/>
-    <col min="66" max="66" width="32.7109375" customWidth="1"/>
-    <col min="67" max="67" width="67.7109375" customWidth="1"/>
-    <col min="68" max="68" width="41.7109375" customWidth="1"/>
-    <col min="69" max="69" width="84.7109375" customWidth="1"/>
-    <col min="70" max="70" width="104.7109375" customWidth="1"/>
-    <col min="71" max="71" width="104.7109375" customWidth="1"/>
-    <col min="72" max="72" width="104.7109375" customWidth="1"/>
-    <col min="73" max="73" width="88.7109375" customWidth="1"/>
-    <col min="74" max="74" width="69.7109375" customWidth="1"/>
-    <col min="75" max="75" width="58.7109375" customWidth="1"/>
-    <col min="76" max="76" width="141.7109375" customWidth="1"/>
-    <col min="77" max="77" width="67.7109375" customWidth="1"/>
-    <col min="78" max="78" width="58.7109375" customWidth="1"/>
-    <col min="79" max="79" width="141.7109375" customWidth="1"/>
-    <col min="80" max="80" width="79.7109375" customWidth="1"/>
-    <col min="81" max="81" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="67.6640625" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
+    <col min="3" max="3" width="65.6640625" customWidth="1"/>
+    <col min="4" max="4" width="41.6640625" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" customWidth="1"/>
+    <col min="6" max="6" width="62.6640625" customWidth="1"/>
+    <col min="7" max="7" width="176.6640625" customWidth="1"/>
+    <col min="8" max="8" width="171.6640625" customWidth="1"/>
+    <col min="9" max="9" width="134.6640625" customWidth="1"/>
+    <col min="10" max="10" width="31.6640625" customWidth="1"/>
+    <col min="11" max="11" width="49.6640625" customWidth="1"/>
+    <col min="12" max="12" width="52.6640625" customWidth="1"/>
+    <col min="13" max="13" width="120.6640625" customWidth="1"/>
+    <col min="14" max="14" width="70.6640625" customWidth="1"/>
+    <col min="15" max="15" width="58.6640625" customWidth="1"/>
+    <col min="16" max="16" width="141.6640625" customWidth="1"/>
+    <col min="17" max="17" width="120.6640625" customWidth="1"/>
+    <col min="18" max="18" width="69.6640625" customWidth="1"/>
+    <col min="19" max="19" width="58.6640625" customWidth="1"/>
+    <col min="20" max="20" width="141.6640625" customWidth="1"/>
+    <col min="21" max="21" width="57.6640625" customWidth="1"/>
+    <col min="22" max="22" width="85.6640625" customWidth="1"/>
+    <col min="23" max="23" width="69.6640625" customWidth="1"/>
+    <col min="24" max="24" width="58.6640625" customWidth="1"/>
+    <col min="25" max="25" width="141.6640625" customWidth="1"/>
+    <col min="26" max="26" width="70.6640625" customWidth="1"/>
+    <col min="27" max="27" width="57.6640625" customWidth="1"/>
+    <col min="28" max="28" width="48.6640625" customWidth="1"/>
+    <col min="29" max="29" width="68.6640625" customWidth="1"/>
+    <col min="30" max="30" width="62.6640625" customWidth="1"/>
+    <col min="31" max="31" width="81.6640625" customWidth="1"/>
+    <col min="32" max="32" width="61.6640625" customWidth="1"/>
+    <col min="33" max="33" width="195.6640625" customWidth="1"/>
+    <col min="34" max="34" width="62.6640625" customWidth="1"/>
+    <col min="35" max="35" width="150.6640625" customWidth="1"/>
+    <col min="36" max="36" width="78.6640625" customWidth="1"/>
+    <col min="37" max="37" width="49.6640625" customWidth="1"/>
+    <col min="38" max="38" width="69.6640625" customWidth="1"/>
+    <col min="39" max="39" width="58.6640625" customWidth="1"/>
+    <col min="40" max="40" width="141.6640625" customWidth="1"/>
+    <col min="41" max="41" width="60.6640625" customWidth="1"/>
+    <col min="42" max="42" width="68.6640625" customWidth="1"/>
+    <col min="43" max="43" width="58.6640625" customWidth="1"/>
+    <col min="44" max="44" width="141.6640625" customWidth="1"/>
+    <col min="45" max="45" width="129.6640625" customWidth="1"/>
+    <col min="46" max="46" width="67.6640625" customWidth="1"/>
+    <col min="47" max="47" width="58.6640625" customWidth="1"/>
+    <col min="48" max="48" width="141.6640625" customWidth="1"/>
+    <col min="49" max="49" width="63.6640625" customWidth="1"/>
+    <col min="50" max="50" width="58.6640625" customWidth="1"/>
+    <col min="51" max="51" width="141.6640625" customWidth="1"/>
+    <col min="52" max="52" width="67.6640625" customWidth="1"/>
+    <col min="53" max="53" width="55.6640625" customWidth="1"/>
+    <col min="54" max="54" width="68.6640625" customWidth="1"/>
+    <col min="55" max="55" width="34.6640625" customWidth="1"/>
+    <col min="56" max="56" width="68.6640625" customWidth="1"/>
+    <col min="57" max="57" width="108.6640625" customWidth="1"/>
+    <col min="58" max="58" width="69.6640625" customWidth="1"/>
+    <col min="59" max="59" width="58.6640625" customWidth="1"/>
+    <col min="60" max="60" width="141.6640625" customWidth="1"/>
+    <col min="61" max="61" width="117.6640625" customWidth="1"/>
+    <col min="62" max="62" width="80.6640625" customWidth="1"/>
+    <col min="63" max="63" width="73.6640625" customWidth="1"/>
+    <col min="64" max="64" width="71.6640625" customWidth="1"/>
+    <col min="65" max="65" width="75.6640625" customWidth="1"/>
+    <col min="66" max="66" width="32.6640625" customWidth="1"/>
+    <col min="67" max="67" width="67.6640625" customWidth="1"/>
+    <col min="68" max="68" width="41.6640625" customWidth="1"/>
+    <col min="69" max="69" width="84.6640625" customWidth="1"/>
+    <col min="70" max="72" width="104.6640625" customWidth="1"/>
+    <col min="73" max="73" width="88.6640625" customWidth="1"/>
+    <col min="74" max="74" width="69.6640625" customWidth="1"/>
+    <col min="75" max="75" width="58.6640625" customWidth="1"/>
+    <col min="76" max="76" width="141.6640625" customWidth="1"/>
+    <col min="77" max="77" width="67.6640625" customWidth="1"/>
+    <col min="78" max="78" width="58.6640625" customWidth="1"/>
+    <col min="79" max="79" width="141.6640625" customWidth="1"/>
+    <col min="80" max="80" width="79.6640625" customWidth="1"/>
+    <col min="81" max="81" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:81">
+    <row r="1" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4111,7 +4162,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:81">
+    <row r="2" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -4356,7 +4407,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:81">
+    <row r="3" spans="1:81" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>139</v>
       </c>
@@ -4580,7 +4631,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:81">
+    <row r="4" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>198</v>
       </c>
@@ -4825,12 +4876,12 @@
         <v>278</v>
       </c>
     </row>
-    <row r="5" spans="1:81">
+    <row r="5" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="6" spans="1:81">
+    <row r="6" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>280</v>
       </c>
@@ -4850,7 +4901,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="7" spans="1:81">
+    <row r="7" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>286</v>
       </c>
@@ -4861,7 +4912,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="8" spans="1:81">
+    <row r="8" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>289</v>
       </c>
@@ -4872,7 +4923,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="9" spans="1:81">
+    <row r="9" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>291</v>
       </c>
@@ -4892,7 +4943,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="10" spans="1:81">
+    <row r="10" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>293</v>
       </c>
@@ -4912,7 +4963,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="11" spans="1:81">
+    <row r="11" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>295</v>
       </c>
@@ -4932,7 +4983,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="12" spans="1:81">
+    <row r="12" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>297</v>
       </c>
@@ -4952,7 +5003,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="13" spans="1:81">
+    <row r="13" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>298</v>
       </c>
@@ -4972,7 +5023,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="14" spans="1:81">
+    <row r="14" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>299</v>
       </c>
@@ -4992,7 +5043,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="15" spans="1:81">
+    <row r="15" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>301</v>
       </c>
@@ -5012,7 +5063,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="16" spans="1:81">
+    <row r="16" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>304</v>
       </c>
@@ -5032,7 +5083,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="17" spans="1:61">
+    <row r="17" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>305</v>
       </c>
@@ -5052,7 +5103,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="18" spans="1:61">
+    <row r="18" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>306</v>
       </c>
@@ -5072,7 +5123,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="19" spans="1:61">
+    <row r="19" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>309</v>
       </c>
@@ -5092,7 +5143,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="20" spans="1:61">
+    <row r="20" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>310</v>
       </c>
@@ -5112,7 +5163,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="21" spans="1:61">
+    <row r="21" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>311</v>
       </c>
@@ -5129,76 +5180,73 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:BH21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="80.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="78.7109375" customWidth="1"/>
-    <col min="4" max="4" width="54.7109375" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" customWidth="1"/>
-    <col min="6" max="6" width="62.7109375" customWidth="1"/>
-    <col min="7" max="7" width="176.7109375" customWidth="1"/>
-    <col min="8" max="8" width="171.7109375" customWidth="1"/>
-    <col min="9" max="9" width="134.7109375" customWidth="1"/>
-    <col min="10" max="10" width="62.7109375" customWidth="1"/>
-    <col min="11" max="11" width="58.7109375" customWidth="1"/>
-    <col min="12" max="12" width="141.7109375" customWidth="1"/>
-    <col min="13" max="13" width="69.7109375" customWidth="1"/>
-    <col min="14" max="14" width="58.7109375" customWidth="1"/>
-    <col min="15" max="15" width="141.7109375" customWidth="1"/>
-    <col min="16" max="16" width="96.7109375" customWidth="1"/>
-    <col min="17" max="17" width="58.7109375" customWidth="1"/>
-    <col min="18" max="18" width="141.7109375" customWidth="1"/>
-    <col min="19" max="19" width="81.7109375" customWidth="1"/>
-    <col min="20" max="20" width="58.7109375" customWidth="1"/>
-    <col min="21" max="21" width="141.7109375" customWidth="1"/>
-    <col min="22" max="22" width="57.7109375" customWidth="1"/>
-    <col min="23" max="23" width="76.7109375" customWidth="1"/>
-    <col min="24" max="24" width="80.7109375" customWidth="1"/>
-    <col min="25" max="25" width="62.7109375" customWidth="1"/>
-    <col min="26" max="26" width="121.7109375" customWidth="1"/>
-    <col min="27" max="27" width="97.7109375" customWidth="1"/>
-    <col min="28" max="28" width="86.7109375" customWidth="1"/>
-    <col min="29" max="29" width="99.7109375" customWidth="1"/>
-    <col min="30" max="30" width="101.7109375" customWidth="1"/>
-    <col min="31" max="31" width="69.7109375" customWidth="1"/>
-    <col min="32" max="32" width="69.7109375" customWidth="1"/>
-    <col min="33" max="33" width="71.7109375" customWidth="1"/>
-    <col min="34" max="34" width="141.7109375" customWidth="1"/>
-    <col min="35" max="35" width="158.7109375" customWidth="1"/>
-    <col min="36" max="36" width="136.7109375" customWidth="1"/>
-    <col min="37" max="37" width="90.7109375" customWidth="1"/>
-    <col min="38" max="38" width="57.7109375" customWidth="1"/>
-    <col min="39" max="39" width="55.7109375" customWidth="1"/>
-    <col min="40" max="40" width="53.7109375" customWidth="1"/>
-    <col min="41" max="41" width="111.7109375" customWidth="1"/>
-    <col min="42" max="42" width="91.7109375" customWidth="1"/>
-    <col min="43" max="43" width="72.7109375" customWidth="1"/>
-    <col min="44" max="44" width="71.7109375" customWidth="1"/>
-    <col min="45" max="45" width="32.7109375" customWidth="1"/>
-    <col min="46" max="46" width="67.7109375" customWidth="1"/>
-    <col min="47" max="47" width="41.7109375" customWidth="1"/>
-    <col min="48" max="48" width="84.7109375" customWidth="1"/>
-    <col min="49" max="49" width="104.7109375" customWidth="1"/>
-    <col min="50" max="50" width="104.7109375" customWidth="1"/>
-    <col min="51" max="51" width="104.7109375" customWidth="1"/>
-    <col min="52" max="52" width="88.7109375" customWidth="1"/>
-    <col min="53" max="53" width="69.7109375" customWidth="1"/>
-    <col min="54" max="54" width="58.7109375" customWidth="1"/>
-    <col min="55" max="55" width="141.7109375" customWidth="1"/>
-    <col min="56" max="56" width="67.7109375" customWidth="1"/>
-    <col min="57" max="57" width="58.7109375" customWidth="1"/>
-    <col min="58" max="58" width="141.7109375" customWidth="1"/>
-    <col min="59" max="59" width="79.7109375" customWidth="1"/>
-    <col min="60" max="60" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="80.6640625" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
+    <col min="3" max="3" width="78.6640625" customWidth="1"/>
+    <col min="4" max="4" width="54.6640625" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" customWidth="1"/>
+    <col min="6" max="6" width="62.6640625" customWidth="1"/>
+    <col min="7" max="7" width="176.6640625" customWidth="1"/>
+    <col min="8" max="8" width="171.6640625" customWidth="1"/>
+    <col min="9" max="9" width="134.6640625" customWidth="1"/>
+    <col min="10" max="10" width="62.6640625" customWidth="1"/>
+    <col min="11" max="11" width="58.6640625" customWidth="1"/>
+    <col min="12" max="12" width="141.6640625" customWidth="1"/>
+    <col min="13" max="13" width="69.6640625" customWidth="1"/>
+    <col min="14" max="14" width="58.6640625" customWidth="1"/>
+    <col min="15" max="15" width="141.6640625" customWidth="1"/>
+    <col min="16" max="16" width="96.6640625" customWidth="1"/>
+    <col min="17" max="17" width="58.6640625" customWidth="1"/>
+    <col min="18" max="18" width="141.6640625" customWidth="1"/>
+    <col min="19" max="19" width="81.6640625" customWidth="1"/>
+    <col min="20" max="20" width="58.6640625" customWidth="1"/>
+    <col min="21" max="21" width="141.6640625" customWidth="1"/>
+    <col min="22" max="22" width="57.6640625" customWidth="1"/>
+    <col min="23" max="23" width="76.6640625" customWidth="1"/>
+    <col min="24" max="24" width="80.6640625" customWidth="1"/>
+    <col min="25" max="25" width="62.6640625" customWidth="1"/>
+    <col min="26" max="26" width="121.6640625" customWidth="1"/>
+    <col min="27" max="27" width="97.6640625" customWidth="1"/>
+    <col min="28" max="28" width="86.6640625" customWidth="1"/>
+    <col min="29" max="29" width="99.6640625" customWidth="1"/>
+    <col min="30" max="30" width="101.6640625" customWidth="1"/>
+    <col min="31" max="32" width="69.6640625" customWidth="1"/>
+    <col min="33" max="33" width="71.6640625" customWidth="1"/>
+    <col min="34" max="34" width="141.6640625" customWidth="1"/>
+    <col min="35" max="35" width="158.6640625" customWidth="1"/>
+    <col min="36" max="36" width="136.6640625" customWidth="1"/>
+    <col min="37" max="37" width="90.6640625" customWidth="1"/>
+    <col min="38" max="38" width="57.6640625" customWidth="1"/>
+    <col min="39" max="39" width="55.6640625" customWidth="1"/>
+    <col min="40" max="40" width="53.6640625" customWidth="1"/>
+    <col min="41" max="41" width="111.6640625" customWidth="1"/>
+    <col min="42" max="42" width="91.6640625" customWidth="1"/>
+    <col min="43" max="43" width="72.6640625" customWidth="1"/>
+    <col min="44" max="44" width="71.6640625" customWidth="1"/>
+    <col min="45" max="45" width="32.6640625" customWidth="1"/>
+    <col min="46" max="46" width="67.6640625" customWidth="1"/>
+    <col min="47" max="47" width="41.6640625" customWidth="1"/>
+    <col min="48" max="48" width="84.6640625" customWidth="1"/>
+    <col min="49" max="51" width="104.6640625" customWidth="1"/>
+    <col min="52" max="52" width="88.6640625" customWidth="1"/>
+    <col min="53" max="53" width="69.6640625" customWidth="1"/>
+    <col min="54" max="54" width="58.6640625" customWidth="1"/>
+    <col min="55" max="55" width="141.6640625" customWidth="1"/>
+    <col min="56" max="56" width="67.6640625" customWidth="1"/>
+    <col min="57" max="57" width="58.6640625" customWidth="1"/>
+    <col min="58" max="58" width="141.6640625" customWidth="1"/>
+    <col min="59" max="59" width="79.6640625" customWidth="1"/>
+    <col min="60" max="60" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>61</v>
       </c>
@@ -5380,7 +5428,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:60">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -5562,7 +5610,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:60">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>139</v>
       </c>
@@ -5723,7 +5771,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:60">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>259</v>
       </c>
@@ -5905,12 +5953,12 @@
         <v>278</v>
       </c>
     </row>
-    <row r="5" spans="1:60">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="6" spans="1:60">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>379</v>
       </c>
@@ -5924,7 +5972,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="7" spans="1:60">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>383</v>
       </c>
@@ -5938,7 +5986,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:60">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>387</v>
       </c>
@@ -5952,7 +6000,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="9" spans="1:60">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>391</v>
       </c>
@@ -5966,7 +6014,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="10" spans="1:60">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>395</v>
       </c>
@@ -5980,7 +6028,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="11" spans="1:60">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>399</v>
       </c>
@@ -5994,7 +6042,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="12" spans="1:60">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>402</v>
       </c>
@@ -6008,7 +6056,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="13" spans="1:60">
+    <row r="13" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>405</v>
       </c>
@@ -6022,7 +6070,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="14" spans="1:60">
+    <row r="14" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>409</v>
       </c>
@@ -6036,7 +6084,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="15" spans="1:60">
+    <row r="15" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>412</v>
       </c>
@@ -6050,7 +6098,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="16" spans="1:60">
+    <row r="16" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>415</v>
       </c>
@@ -6064,7 +6112,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="17" spans="1:43">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>418</v>
       </c>
@@ -6078,7 +6126,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="18" spans="1:43">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>422</v>
       </c>
@@ -6092,7 +6140,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="19" spans="1:43">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>426</v>
       </c>
@@ -6106,7 +6154,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="20" spans="1:43">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>430</v>
       </c>
@@ -6120,7 +6168,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="21" spans="1:43">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>434</v>
       </c>
@@ -6140,75 +6188,72 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BG21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="73.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="102.7109375" customWidth="1"/>
-    <col min="4" max="4" width="47.7109375" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" customWidth="1"/>
-    <col min="6" max="6" width="127.7109375" customWidth="1"/>
-    <col min="7" max="7" width="176.7109375" customWidth="1"/>
-    <col min="8" max="8" width="171.7109375" customWidth="1"/>
-    <col min="9" max="9" width="134.7109375" customWidth="1"/>
-    <col min="10" max="10" width="57.7109375" customWidth="1"/>
-    <col min="11" max="11" width="85.7109375" customWidth="1"/>
-    <col min="12" max="12" width="69.7109375" customWidth="1"/>
-    <col min="13" max="13" width="58.7109375" customWidth="1"/>
-    <col min="14" max="14" width="141.7109375" customWidth="1"/>
-    <col min="15" max="15" width="70.7109375" customWidth="1"/>
-    <col min="16" max="16" width="57.7109375" customWidth="1"/>
-    <col min="17" max="17" width="54.7109375" customWidth="1"/>
-    <col min="18" max="18" width="68.7109375" customWidth="1"/>
-    <col min="19" max="19" width="62.7109375" customWidth="1"/>
-    <col min="20" max="20" width="81.7109375" customWidth="1"/>
-    <col min="21" max="21" width="61.7109375" customWidth="1"/>
-    <col min="22" max="22" width="195.7109375" customWidth="1"/>
-    <col min="23" max="23" width="62.7109375" customWidth="1"/>
-    <col min="24" max="24" width="150.7109375" customWidth="1"/>
-    <col min="25" max="25" width="78.7109375" customWidth="1"/>
-    <col min="26" max="26" width="64.7109375" customWidth="1"/>
-    <col min="27" max="27" width="58.7109375" customWidth="1"/>
-    <col min="28" max="28" width="141.7109375" customWidth="1"/>
-    <col min="29" max="29" width="163.7109375" customWidth="1"/>
-    <col min="30" max="30" width="58.7109375" customWidth="1"/>
-    <col min="31" max="31" width="141.7109375" customWidth="1"/>
-    <col min="32" max="32" width="52.7109375" customWidth="1"/>
-    <col min="33" max="33" width="63.7109375" customWidth="1"/>
-    <col min="34" max="34" width="59.7109375" customWidth="1"/>
-    <col min="35" max="35" width="108.7109375" customWidth="1"/>
-    <col min="36" max="36" width="108.7109375" customWidth="1"/>
-    <col min="37" max="37" width="69.7109375" customWidth="1"/>
-    <col min="38" max="38" width="58.7109375" customWidth="1"/>
-    <col min="39" max="39" width="141.7109375" customWidth="1"/>
-    <col min="40" max="40" width="117.7109375" customWidth="1"/>
-    <col min="41" max="41" width="80.7109375" customWidth="1"/>
-    <col min="42" max="42" width="73.7109375" customWidth="1"/>
-    <col min="43" max="43" width="71.7109375" customWidth="1"/>
-    <col min="44" max="44" width="32.7109375" customWidth="1"/>
-    <col min="45" max="45" width="67.7109375" customWidth="1"/>
-    <col min="46" max="46" width="41.7109375" customWidth="1"/>
-    <col min="47" max="47" width="84.7109375" customWidth="1"/>
-    <col min="48" max="48" width="104.7109375" customWidth="1"/>
-    <col min="49" max="49" width="104.7109375" customWidth="1"/>
-    <col min="50" max="50" width="104.7109375" customWidth="1"/>
-    <col min="51" max="51" width="88.7109375" customWidth="1"/>
-    <col min="52" max="52" width="69.7109375" customWidth="1"/>
-    <col min="53" max="53" width="58.7109375" customWidth="1"/>
-    <col min="54" max="54" width="141.7109375" customWidth="1"/>
-    <col min="55" max="55" width="67.7109375" customWidth="1"/>
-    <col min="56" max="56" width="58.7109375" customWidth="1"/>
-    <col min="57" max="57" width="141.7109375" customWidth="1"/>
-    <col min="58" max="58" width="79.7109375" customWidth="1"/>
-    <col min="59" max="59" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="73.6640625" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
+    <col min="3" max="3" width="102.6640625" customWidth="1"/>
+    <col min="4" max="4" width="47.6640625" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" customWidth="1"/>
+    <col min="6" max="6" width="127.6640625" customWidth="1"/>
+    <col min="7" max="7" width="176.6640625" customWidth="1"/>
+    <col min="8" max="8" width="171.6640625" customWidth="1"/>
+    <col min="9" max="9" width="134.6640625" customWidth="1"/>
+    <col min="10" max="10" width="57.6640625" customWidth="1"/>
+    <col min="11" max="11" width="85.6640625" customWidth="1"/>
+    <col min="12" max="12" width="69.6640625" customWidth="1"/>
+    <col min="13" max="13" width="58.6640625" customWidth="1"/>
+    <col min="14" max="14" width="141.6640625" customWidth="1"/>
+    <col min="15" max="15" width="70.6640625" customWidth="1"/>
+    <col min="16" max="16" width="57.6640625" customWidth="1"/>
+    <col min="17" max="17" width="54.6640625" customWidth="1"/>
+    <col min="18" max="18" width="68.6640625" customWidth="1"/>
+    <col min="19" max="19" width="62.6640625" customWidth="1"/>
+    <col min="20" max="20" width="81.6640625" customWidth="1"/>
+    <col min="21" max="21" width="61.6640625" customWidth="1"/>
+    <col min="22" max="22" width="195.6640625" customWidth="1"/>
+    <col min="23" max="23" width="62.6640625" customWidth="1"/>
+    <col min="24" max="24" width="150.6640625" customWidth="1"/>
+    <col min="25" max="25" width="78.6640625" customWidth="1"/>
+    <col min="26" max="26" width="64.6640625" customWidth="1"/>
+    <col min="27" max="27" width="58.6640625" customWidth="1"/>
+    <col min="28" max="28" width="141.6640625" customWidth="1"/>
+    <col min="29" max="29" width="163.6640625" customWidth="1"/>
+    <col min="30" max="30" width="58.6640625" customWidth="1"/>
+    <col min="31" max="31" width="141.6640625" customWidth="1"/>
+    <col min="32" max="32" width="52.6640625" customWidth="1"/>
+    <col min="33" max="33" width="63.6640625" customWidth="1"/>
+    <col min="34" max="34" width="59.6640625" customWidth="1"/>
+    <col min="35" max="36" width="108.6640625" customWidth="1"/>
+    <col min="37" max="37" width="69.6640625" customWidth="1"/>
+    <col min="38" max="38" width="58.6640625" customWidth="1"/>
+    <col min="39" max="39" width="141.6640625" customWidth="1"/>
+    <col min="40" max="40" width="117.6640625" customWidth="1"/>
+    <col min="41" max="41" width="80.6640625" customWidth="1"/>
+    <col min="42" max="42" width="73.6640625" customWidth="1"/>
+    <col min="43" max="43" width="71.6640625" customWidth="1"/>
+    <col min="44" max="44" width="32.6640625" customWidth="1"/>
+    <col min="45" max="45" width="67.6640625" customWidth="1"/>
+    <col min="46" max="46" width="41.6640625" customWidth="1"/>
+    <col min="47" max="47" width="84.6640625" customWidth="1"/>
+    <col min="48" max="50" width="104.6640625" customWidth="1"/>
+    <col min="51" max="51" width="88.6640625" customWidth="1"/>
+    <col min="52" max="52" width="69.6640625" customWidth="1"/>
+    <col min="53" max="53" width="58.6640625" customWidth="1"/>
+    <col min="54" max="54" width="141.6640625" customWidth="1"/>
+    <col min="55" max="55" width="67.6640625" customWidth="1"/>
+    <col min="56" max="56" width="58.6640625" customWidth="1"/>
+    <col min="57" max="57" width="141.6640625" customWidth="1"/>
+    <col min="58" max="58" width="79.6640625" customWidth="1"/>
+    <col min="59" max="59" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>313</v>
       </c>
@@ -6387,7 +6432,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:59">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -6566,7 +6611,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:59">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>139</v>
       </c>
@@ -6724,7 +6769,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:59">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>334</v>
       </c>
@@ -6903,12 +6948,12 @@
         <v>278</v>
       </c>
     </row>
-    <row r="5" spans="1:59">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="6" spans="1:59">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>374</v>
       </c>
@@ -6931,7 +6976,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="7" spans="1:59">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>380</v>
       </c>
@@ -6954,7 +6999,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="8" spans="1:59">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>384</v>
       </c>
@@ -6977,7 +7022,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="9" spans="1:59">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>388</v>
       </c>
@@ -7000,7 +7045,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="10" spans="1:59">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>392</v>
       </c>
@@ -7023,7 +7068,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="11" spans="1:59">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>396</v>
       </c>
@@ -7046,7 +7091,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="12" spans="1:59">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>400</v>
       </c>
@@ -7069,7 +7114,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="13" spans="1:59">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>403</v>
       </c>
@@ -7092,7 +7137,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="14" spans="1:59">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>406</v>
       </c>
@@ -7115,7 +7160,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="15" spans="1:59">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>410</v>
       </c>
@@ -7138,7 +7183,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="16" spans="1:59">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>413</v>
       </c>
@@ -7161,7 +7206,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="17" spans="1:41">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>416</v>
       </c>
@@ -7184,7 +7229,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="18" spans="1:41">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>419</v>
       </c>
@@ -7207,7 +7252,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="19" spans="1:41">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>423</v>
       </c>
@@ -7230,7 +7275,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="20" spans="1:41">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>427</v>
       </c>
@@ -7253,7 +7298,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="21" spans="1:41">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>431</v>
       </c>
@@ -7282,93 +7327,91 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BY10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="72.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="70.7109375" customWidth="1"/>
-    <col min="4" max="4" width="46.7109375" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" customWidth="1"/>
-    <col min="6" max="6" width="62.7109375" customWidth="1"/>
-    <col min="7" max="7" width="176.7109375" customWidth="1"/>
-    <col min="8" max="8" width="171.7109375" customWidth="1"/>
-    <col min="9" max="9" width="134.7109375" customWidth="1"/>
-    <col min="10" max="10" width="46.7109375" customWidth="1"/>
-    <col min="11" max="11" width="103.7109375" customWidth="1"/>
-    <col min="12" max="12" width="58.7109375" customWidth="1"/>
-    <col min="13" max="13" width="141.7109375" customWidth="1"/>
-    <col min="14" max="14" width="42.7109375" customWidth="1"/>
-    <col min="15" max="15" width="58.7109375" customWidth="1"/>
-    <col min="16" max="16" width="141.7109375" customWidth="1"/>
-    <col min="17" max="17" width="62.7109375" customWidth="1"/>
-    <col min="18" max="18" width="58.7109375" customWidth="1"/>
-    <col min="19" max="19" width="141.7109375" customWidth="1"/>
-    <col min="20" max="20" width="65.7109375" customWidth="1"/>
-    <col min="21" max="21" width="221.7109375" customWidth="1"/>
-    <col min="22" max="22" width="106.7109375" customWidth="1"/>
-    <col min="23" max="23" width="69.7109375" customWidth="1"/>
-    <col min="24" max="24" width="58.7109375" customWidth="1"/>
-    <col min="25" max="25" width="141.7109375" customWidth="1"/>
-    <col min="26" max="26" width="77.7109375" customWidth="1"/>
-    <col min="27" max="27" width="58.7109375" customWidth="1"/>
-    <col min="28" max="28" width="141.7109375" customWidth="1"/>
-    <col min="29" max="29" width="82.7109375" customWidth="1"/>
-    <col min="30" max="30" width="58.7109375" customWidth="1"/>
-    <col min="31" max="31" width="141.7109375" customWidth="1"/>
-    <col min="32" max="32" width="134.7109375" customWidth="1"/>
-    <col min="33" max="33" width="90.7109375" customWidth="1"/>
-    <col min="34" max="34" width="52.7109375" customWidth="1"/>
-    <col min="35" max="35" width="143.7109375" customWidth="1"/>
-    <col min="36" max="36" width="136.7109375" customWidth="1"/>
-    <col min="37" max="37" width="147.7109375" customWidth="1"/>
-    <col min="38" max="38" width="155.7109375" customWidth="1"/>
-    <col min="39" max="39" width="172.7109375" customWidth="1"/>
-    <col min="40" max="40" width="129.7109375" customWidth="1"/>
-    <col min="41" max="41" width="137.7109375" customWidth="1"/>
-    <col min="42" max="42" width="74.7109375" customWidth="1"/>
-    <col min="43" max="43" width="89.7109375" customWidth="1"/>
-    <col min="44" max="44" width="174.7109375" customWidth="1"/>
-    <col min="45" max="45" width="154.7109375" customWidth="1"/>
-    <col min="46" max="46" width="69.7109375" customWidth="1"/>
-    <col min="47" max="47" width="58.7109375" customWidth="1"/>
-    <col min="48" max="48" width="141.7109375" customWidth="1"/>
-    <col min="49" max="49" width="109.7109375" customWidth="1"/>
-    <col min="50" max="50" width="69.7109375" customWidth="1"/>
-    <col min="51" max="51" width="58.7109375" customWidth="1"/>
-    <col min="52" max="52" width="141.7109375" customWidth="1"/>
-    <col min="53" max="53" width="106.7109375" customWidth="1"/>
-    <col min="54" max="54" width="69.7109375" customWidth="1"/>
-    <col min="55" max="55" width="58.7109375" customWidth="1"/>
-    <col min="56" max="56" width="141.7109375" customWidth="1"/>
-    <col min="57" max="57" width="108.7109375" customWidth="1"/>
-    <col min="58" max="58" width="69.7109375" customWidth="1"/>
-    <col min="59" max="59" width="58.7109375" customWidth="1"/>
-    <col min="60" max="60" width="141.7109375" customWidth="1"/>
-    <col min="61" max="61" width="117.7109375" customWidth="1"/>
-    <col min="62" max="62" width="32.7109375" customWidth="1"/>
-    <col min="63" max="63" width="67.7109375" customWidth="1"/>
-    <col min="64" max="64" width="41.7109375" customWidth="1"/>
-    <col min="65" max="65" width="84.7109375" customWidth="1"/>
-    <col min="66" max="66" width="104.7109375" customWidth="1"/>
-    <col min="67" max="67" width="104.7109375" customWidth="1"/>
-    <col min="68" max="68" width="104.7109375" customWidth="1"/>
-    <col min="69" max="69" width="88.7109375" customWidth="1"/>
-    <col min="70" max="70" width="69.7109375" customWidth="1"/>
-    <col min="71" max="71" width="58.7109375" customWidth="1"/>
-    <col min="72" max="72" width="141.7109375" customWidth="1"/>
-    <col min="73" max="73" width="67.7109375" customWidth="1"/>
-    <col min="74" max="74" width="58.7109375" customWidth="1"/>
-    <col min="75" max="75" width="141.7109375" customWidth="1"/>
-    <col min="76" max="76" width="79.7109375" customWidth="1"/>
-    <col min="77" max="77" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="72.6640625" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
+    <col min="3" max="3" width="70.6640625" customWidth="1"/>
+    <col min="4" max="4" width="46.6640625" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" customWidth="1"/>
+    <col min="6" max="6" width="62.6640625" customWidth="1"/>
+    <col min="7" max="7" width="176.6640625" customWidth="1"/>
+    <col min="8" max="8" width="171.6640625" customWidth="1"/>
+    <col min="9" max="9" width="134.6640625" customWidth="1"/>
+    <col min="10" max="10" width="46.6640625" customWidth="1"/>
+    <col min="11" max="11" width="103.6640625" customWidth="1"/>
+    <col min="12" max="12" width="58.6640625" customWidth="1"/>
+    <col min="13" max="13" width="141.6640625" customWidth="1"/>
+    <col min="14" max="14" width="42.6640625" customWidth="1"/>
+    <col min="15" max="15" width="58.6640625" customWidth="1"/>
+    <col min="16" max="16" width="141.6640625" customWidth="1"/>
+    <col min="17" max="17" width="62.6640625" customWidth="1"/>
+    <col min="18" max="18" width="58.6640625" customWidth="1"/>
+    <col min="19" max="19" width="141.6640625" customWidth="1"/>
+    <col min="20" max="20" width="65.6640625" customWidth="1"/>
+    <col min="21" max="21" width="221.6640625" customWidth="1"/>
+    <col min="22" max="22" width="106.6640625" customWidth="1"/>
+    <col min="23" max="23" width="69.6640625" customWidth="1"/>
+    <col min="24" max="24" width="58.6640625" customWidth="1"/>
+    <col min="25" max="25" width="141.6640625" customWidth="1"/>
+    <col min="26" max="26" width="77.6640625" customWidth="1"/>
+    <col min="27" max="27" width="58.6640625" customWidth="1"/>
+    <col min="28" max="28" width="141.6640625" customWidth="1"/>
+    <col min="29" max="29" width="82.6640625" customWidth="1"/>
+    <col min="30" max="30" width="58.6640625" customWidth="1"/>
+    <col min="31" max="31" width="141.6640625" customWidth="1"/>
+    <col min="32" max="32" width="134.6640625" customWidth="1"/>
+    <col min="33" max="33" width="90.6640625" customWidth="1"/>
+    <col min="34" max="34" width="52.6640625" customWidth="1"/>
+    <col min="35" max="35" width="143.6640625" customWidth="1"/>
+    <col min="36" max="36" width="136.6640625" customWidth="1"/>
+    <col min="37" max="37" width="147.6640625" customWidth="1"/>
+    <col min="38" max="38" width="155.6640625" customWidth="1"/>
+    <col min="39" max="39" width="172.6640625" customWidth="1"/>
+    <col min="40" max="40" width="129.6640625" customWidth="1"/>
+    <col min="41" max="41" width="137.6640625" customWidth="1"/>
+    <col min="42" max="42" width="74.6640625" customWidth="1"/>
+    <col min="43" max="43" width="89.6640625" customWidth="1"/>
+    <col min="44" max="44" width="174.6640625" customWidth="1"/>
+    <col min="45" max="45" width="154.6640625" customWidth="1"/>
+    <col min="46" max="46" width="69.6640625" customWidth="1"/>
+    <col min="47" max="47" width="58.6640625" customWidth="1"/>
+    <col min="48" max="48" width="141.6640625" customWidth="1"/>
+    <col min="49" max="49" width="109.6640625" customWidth="1"/>
+    <col min="50" max="50" width="69.6640625" customWidth="1"/>
+    <col min="51" max="51" width="58.6640625" customWidth="1"/>
+    <col min="52" max="52" width="141.6640625" customWidth="1"/>
+    <col min="53" max="53" width="106.6640625" customWidth="1"/>
+    <col min="54" max="54" width="69.6640625" customWidth="1"/>
+    <col min="55" max="55" width="58.6640625" customWidth="1"/>
+    <col min="56" max="56" width="141.6640625" customWidth="1"/>
+    <col min="57" max="57" width="108.6640625" customWidth="1"/>
+    <col min="58" max="58" width="69.6640625" customWidth="1"/>
+    <col min="59" max="59" width="58.6640625" customWidth="1"/>
+    <col min="60" max="60" width="141.6640625" customWidth="1"/>
+    <col min="61" max="61" width="117.6640625" customWidth="1"/>
+    <col min="62" max="62" width="32.6640625" customWidth="1"/>
+    <col min="63" max="63" width="67.6640625" customWidth="1"/>
+    <col min="64" max="64" width="41.6640625" customWidth="1"/>
+    <col min="65" max="65" width="84.6640625" customWidth="1"/>
+    <col min="66" max="68" width="104.6640625" customWidth="1"/>
+    <col min="69" max="69" width="88.6640625" customWidth="1"/>
+    <col min="70" max="70" width="69.6640625" customWidth="1"/>
+    <col min="71" max="71" width="58.6640625" customWidth="1"/>
+    <col min="72" max="72" width="141.6640625" customWidth="1"/>
+    <col min="73" max="73" width="67.6640625" customWidth="1"/>
+    <col min="74" max="74" width="58.6640625" customWidth="1"/>
+    <col min="75" max="75" width="141.6640625" customWidth="1"/>
+    <col min="76" max="76" width="79.6640625" customWidth="1"/>
+    <col min="77" max="77" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77">
+    <row r="1" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>435</v>
       </c>
@@ -7601,7 +7644,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:77">
+    <row r="2" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -7834,7 +7877,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:77">
+    <row r="3" spans="1:77" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>139</v>
       </c>
@@ -8049,7 +8092,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:77">
+    <row r="4" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>537</v>
       </c>
@@ -8282,12 +8325,12 @@
         <v>278</v>
       </c>
     </row>
-    <row r="5" spans="1:77">
+    <row r="5" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="6" spans="1:77">
+    <row r="6" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>598</v>
       </c>
@@ -8298,7 +8341,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="7" spans="1:77">
+    <row r="7" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>600</v>
       </c>
@@ -8309,7 +8352,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="8" spans="1:77">
+    <row r="8" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>601</v>
       </c>
@@ -8320,7 +8363,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="9" spans="1:77">
+    <row r="9" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>602</v>
       </c>
@@ -8331,7 +8374,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="10" spans="1:77">
+    <row r="10" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>603</v>
       </c>
@@ -8348,67 +8391,65 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AY6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="80.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="186.7109375" customWidth="1"/>
-    <col min="4" max="4" width="66.7109375" customWidth="1"/>
-    <col min="5" max="5" width="67.7109375" customWidth="1"/>
-    <col min="6" max="6" width="69.7109375" customWidth="1"/>
-    <col min="7" max="7" width="71.7109375" customWidth="1"/>
-    <col min="8" max="8" width="57.7109375" customWidth="1"/>
-    <col min="9" max="9" width="57.7109375" customWidth="1"/>
-    <col min="10" max="10" width="80.7109375" customWidth="1"/>
-    <col min="11" max="11" width="84.7109375" customWidth="1"/>
-    <col min="12" max="12" width="66.7109375" customWidth="1"/>
-    <col min="13" max="13" width="141.7109375" customWidth="1"/>
-    <col min="14" max="14" width="102.7109375" customWidth="1"/>
-    <col min="15" max="15" width="67.7109375" customWidth="1"/>
-    <col min="16" max="16" width="66.7109375" customWidth="1"/>
-    <col min="17" max="17" width="141.7109375" customWidth="1"/>
-    <col min="18" max="18" width="90.7109375" customWidth="1"/>
-    <col min="19" max="19" width="69.7109375" customWidth="1"/>
-    <col min="20" max="20" width="67.7109375" customWidth="1"/>
-    <col min="21" max="21" width="65.7109375" customWidth="1"/>
-    <col min="22" max="22" width="111.7109375" customWidth="1"/>
-    <col min="23" max="23" width="91.7109375" customWidth="1"/>
-    <col min="24" max="24" width="90.7109375" customWidth="1"/>
-    <col min="25" max="25" width="72.7109375" customWidth="1"/>
-    <col min="26" max="26" width="70.7109375" customWidth="1"/>
-    <col min="27" max="27" width="68.7109375" customWidth="1"/>
-    <col min="28" max="28" width="111.7109375" customWidth="1"/>
-    <col min="29" max="29" width="91.7109375" customWidth="1"/>
-    <col min="30" max="30" width="161.7109375" customWidth="1"/>
-    <col min="31" max="31" width="52.7109375" customWidth="1"/>
-    <col min="32" max="32" width="320.7109375" customWidth="1"/>
-    <col min="33" max="33" width="90.7109375" customWidth="1"/>
-    <col min="34" max="34" width="57.7109375" customWidth="1"/>
-    <col min="35" max="35" width="55.7109375" customWidth="1"/>
-    <col min="36" max="36" width="53.7109375" customWidth="1"/>
-    <col min="37" max="37" width="111.7109375" customWidth="1"/>
-    <col min="38" max="38" width="91.7109375" customWidth="1"/>
-    <col min="39" max="39" width="47.7109375" customWidth="1"/>
-    <col min="40" max="40" width="71.7109375" customWidth="1"/>
-    <col min="41" max="41" width="56.7109375" customWidth="1"/>
-    <col min="42" max="42" width="56.7109375" customWidth="1"/>
-    <col min="43" max="43" width="80.7109375" customWidth="1"/>
-    <col min="44" max="44" width="67.7109375" customWidth="1"/>
-    <col min="45" max="45" width="70.7109375" customWidth="1"/>
-    <col min="46" max="46" width="141.7109375" customWidth="1"/>
-    <col min="47" max="47" width="68.7109375" customWidth="1"/>
-    <col min="48" max="48" width="72.7109375" customWidth="1"/>
-    <col min="49" max="49" width="141.7109375" customWidth="1"/>
-    <col min="50" max="50" width="56.7109375" customWidth="1"/>
-    <col min="51" max="51" width="74.7109375" customWidth="1"/>
+    <col min="1" max="1" width="80.6640625" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
+    <col min="3" max="3" width="186.6640625" customWidth="1"/>
+    <col min="4" max="4" width="66.6640625" customWidth="1"/>
+    <col min="5" max="5" width="67.6640625" customWidth="1"/>
+    <col min="6" max="6" width="69.6640625" customWidth="1"/>
+    <col min="7" max="7" width="71.6640625" customWidth="1"/>
+    <col min="8" max="9" width="57.6640625" customWidth="1"/>
+    <col min="10" max="10" width="80.6640625" customWidth="1"/>
+    <col min="11" max="11" width="84.6640625" customWidth="1"/>
+    <col min="12" max="12" width="66.6640625" customWidth="1"/>
+    <col min="13" max="13" width="141.6640625" customWidth="1"/>
+    <col min="14" max="14" width="102.6640625" customWidth="1"/>
+    <col min="15" max="15" width="67.6640625" customWidth="1"/>
+    <col min="16" max="16" width="66.6640625" customWidth="1"/>
+    <col min="17" max="17" width="141.6640625" customWidth="1"/>
+    <col min="18" max="18" width="90.6640625" customWidth="1"/>
+    <col min="19" max="19" width="69.6640625" customWidth="1"/>
+    <col min="20" max="20" width="67.6640625" customWidth="1"/>
+    <col min="21" max="21" width="65.6640625" customWidth="1"/>
+    <col min="22" max="22" width="111.6640625" customWidth="1"/>
+    <col min="23" max="23" width="91.6640625" customWidth="1"/>
+    <col min="24" max="24" width="90.6640625" customWidth="1"/>
+    <col min="25" max="25" width="72.6640625" customWidth="1"/>
+    <col min="26" max="26" width="70.6640625" customWidth="1"/>
+    <col min="27" max="27" width="68.6640625" customWidth="1"/>
+    <col min="28" max="28" width="111.6640625" customWidth="1"/>
+    <col min="29" max="29" width="91.6640625" customWidth="1"/>
+    <col min="30" max="30" width="161.6640625" customWidth="1"/>
+    <col min="31" max="31" width="52.6640625" customWidth="1"/>
+    <col min="32" max="32" width="320.6640625" customWidth="1"/>
+    <col min="33" max="33" width="90.6640625" customWidth="1"/>
+    <col min="34" max="34" width="57.6640625" customWidth="1"/>
+    <col min="35" max="35" width="55.6640625" customWidth="1"/>
+    <col min="36" max="36" width="53.6640625" customWidth="1"/>
+    <col min="37" max="37" width="111.6640625" customWidth="1"/>
+    <col min="38" max="38" width="91.6640625" customWidth="1"/>
+    <col min="39" max="39" width="47.6640625" customWidth="1"/>
+    <col min="40" max="40" width="71.6640625" customWidth="1"/>
+    <col min="41" max="42" width="56.6640625" customWidth="1"/>
+    <col min="43" max="43" width="80.6640625" customWidth="1"/>
+    <col min="44" max="44" width="67.6640625" customWidth="1"/>
+    <col min="45" max="45" width="70.6640625" customWidth="1"/>
+    <col min="46" max="46" width="141.6640625" customWidth="1"/>
+    <col min="47" max="47" width="68.6640625" customWidth="1"/>
+    <col min="48" max="48" width="72.6640625" customWidth="1"/>
+    <col min="49" max="49" width="141.6640625" customWidth="1"/>
+    <col min="50" max="50" width="56.6640625" customWidth="1"/>
+    <col min="51" max="51" width="74.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>604</v>
       </c>
@@ -8563,7 +8604,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="2" spans="1:51">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>127</v>
       </c>
@@ -8718,7 +8759,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="3" spans="1:51">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>189</v>
       </c>
@@ -8867,7 +8908,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="4" spans="1:51">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>704</v>
       </c>
@@ -9022,12 +9063,12 @@
         <v>754</v>
       </c>
     </row>
-    <row r="5" spans="1:51">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="6" spans="1:51">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>755</v>
       </c>
@@ -9044,25 +9085,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="162.7109375" customWidth="1"/>
-    <col min="2" max="2" width="153.7109375" customWidth="1"/>
-    <col min="3" max="3" width="1777.7109375" customWidth="1"/>
-    <col min="4" max="4" width="135.7109375" customWidth="1"/>
-    <col min="5" max="5" width="171.7109375" customWidth="1"/>
-    <col min="6" max="6" width="99.7109375" customWidth="1"/>
-    <col min="7" max="7" width="99.7109375" customWidth="1"/>
-    <col min="8" max="8" width="174.7109375" customWidth="1"/>
-    <col min="9" max="9" width="75.7109375" customWidth="1"/>
+    <col min="1" max="1" width="162.6640625" customWidth="1"/>
+    <col min="2" max="2" width="153.6640625" customWidth="1"/>
+    <col min="3" max="3" width="1777.6640625" customWidth="1"/>
+    <col min="4" max="4" width="135.6640625" customWidth="1"/>
+    <col min="5" max="5" width="171.6640625" customWidth="1"/>
+    <col min="6" max="7" width="99.6640625" customWidth="1"/>
+    <col min="8" max="8" width="174.6640625" customWidth="1"/>
+    <col min="9" max="9" width="75.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>758</v>
       </c>
@@ -9091,7 +9131,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>767</v>
       </c>
@@ -9120,7 +9160,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>776</v>
       </c>
@@ -9149,7 +9189,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>785</v>
       </c>
@@ -9178,12 +9218,12 @@
         <v>793</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>794</v>
       </c>
@@ -9209,28 +9249,28 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="103.7109375" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1"/>
-    <col min="3" max="3" width="57.7109375" customWidth="1"/>
-    <col min="4" max="4" width="54.7109375" customWidth="1"/>
-    <col min="5" max="5" width="75.7109375" customWidth="1"/>
-    <col min="6" max="6" width="127.7109375" customWidth="1"/>
-    <col min="7" max="7" width="36.7109375" customWidth="1"/>
-    <col min="8" max="8" width="70.7109375" customWidth="1"/>
-    <col min="9" max="9" width="64.7109375" customWidth="1"/>
-    <col min="10" max="10" width="58.7109375" customWidth="1"/>
-    <col min="11" max="11" width="141.7109375" customWidth="1"/>
-    <col min="12" max="12" width="51.7109375" customWidth="1"/>
+    <col min="1" max="1" width="103.6640625" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1"/>
+    <col min="3" max="3" width="57.6640625" customWidth="1"/>
+    <col min="4" max="4" width="54.6640625" customWidth="1"/>
+    <col min="5" max="5" width="75.6640625" customWidth="1"/>
+    <col min="6" max="6" width="127.6640625" customWidth="1"/>
+    <col min="7" max="7" width="36.6640625" customWidth="1"/>
+    <col min="8" max="8" width="70.6640625" customWidth="1"/>
+    <col min="9" max="9" width="64.6640625" customWidth="1"/>
+    <col min="10" max="10" width="58.6640625" customWidth="1"/>
+    <col min="11" max="11" width="141.6640625" customWidth="1"/>
+    <col min="12" max="12" width="51.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>800</v>
       </c>
@@ -9268,7 +9308,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>812</v>
       </c>
@@ -9306,7 +9346,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>822</v>
       </c>
@@ -9344,7 +9384,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>833</v>
       </c>
@@ -9382,12 +9422,12 @@
         <v>844</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>845</v>
       </c>
@@ -9413,21 +9453,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="67.7109375" customWidth="1"/>
-    <col min="2" max="2" width="55.7109375" customWidth="1"/>
-    <col min="3" max="3" width="68.7109375" customWidth="1"/>
-    <col min="4" max="4" width="34.7109375" customWidth="1"/>
-    <col min="5" max="5" width="68.7109375" customWidth="1"/>
+    <col min="1" max="1" width="67.6640625" customWidth="1"/>
+    <col min="2" max="2" width="55.6640625" customWidth="1"/>
+    <col min="3" max="3" width="68.6640625" customWidth="1"/>
+    <col min="4" max="4" width="34.6640625" customWidth="1"/>
+    <col min="5" max="5" width="68.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -9444,7 +9484,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>119</v>
       </c>
@@ -9461,7 +9501,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>180</v>
       </c>
@@ -9478,7 +9518,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>851</v>
       </c>
@@ -9495,12 +9535,12 @@
         <v>855</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
         <v>856</v>
       </c>
@@ -9511,46 +9551,44 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AD53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="85.7109375" customWidth="1"/>
-    <col min="2" max="2" width="94.7109375" customWidth="1"/>
-    <col min="3" max="3" width="53.7109375" customWidth="1"/>
-    <col min="4" max="4" width="58.7109375" customWidth="1"/>
-    <col min="5" max="5" width="141.7109375" customWidth="1"/>
-    <col min="6" max="6" width="47.7109375" customWidth="1"/>
-    <col min="7" max="7" width="117.7109375" customWidth="1"/>
-    <col min="8" max="8" width="44.7109375" customWidth="1"/>
-    <col min="9" max="9" width="61.7109375" customWidth="1"/>
-    <col min="10" max="10" width="168.7109375" customWidth="1"/>
-    <col min="11" max="11" width="156.7109375" customWidth="1"/>
-    <col min="12" max="12" width="73.7109375" customWidth="1"/>
-    <col min="13" max="13" width="80.7109375" customWidth="1"/>
-    <col min="14" max="14" width="71.7109375" customWidth="1"/>
-    <col min="15" max="15" width="32.7109375" customWidth="1"/>
-    <col min="16" max="16" width="67.7109375" customWidth="1"/>
-    <col min="17" max="17" width="41.7109375" customWidth="1"/>
-    <col min="18" max="18" width="84.7109375" customWidth="1"/>
-    <col min="19" max="19" width="104.7109375" customWidth="1"/>
-    <col min="20" max="20" width="104.7109375" customWidth="1"/>
-    <col min="21" max="21" width="104.7109375" customWidth="1"/>
-    <col min="22" max="22" width="88.7109375" customWidth="1"/>
-    <col min="23" max="23" width="69.7109375" customWidth="1"/>
-    <col min="24" max="24" width="58.7109375" customWidth="1"/>
-    <col min="25" max="25" width="141.7109375" customWidth="1"/>
-    <col min="26" max="26" width="67.7109375" customWidth="1"/>
-    <col min="27" max="27" width="58.7109375" customWidth="1"/>
-    <col min="28" max="28" width="141.7109375" customWidth="1"/>
-    <col min="29" max="29" width="79.7109375" customWidth="1"/>
-    <col min="30" max="30" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="85.6640625" customWidth="1"/>
+    <col min="2" max="2" width="94.6640625" customWidth="1"/>
+    <col min="3" max="3" width="53.6640625" customWidth="1"/>
+    <col min="4" max="4" width="58.6640625" customWidth="1"/>
+    <col min="5" max="5" width="141.6640625" customWidth="1"/>
+    <col min="6" max="6" width="47.6640625" customWidth="1"/>
+    <col min="7" max="7" width="117.6640625" customWidth="1"/>
+    <col min="8" max="8" width="44.6640625" customWidth="1"/>
+    <col min="9" max="9" width="61.6640625" customWidth="1"/>
+    <col min="10" max="10" width="168.6640625" customWidth="1"/>
+    <col min="11" max="11" width="156.6640625" customWidth="1"/>
+    <col min="12" max="12" width="73.6640625" customWidth="1"/>
+    <col min="13" max="13" width="80.6640625" customWidth="1"/>
+    <col min="14" max="14" width="71.6640625" customWidth="1"/>
+    <col min="15" max="15" width="32.6640625" customWidth="1"/>
+    <col min="16" max="16" width="67.6640625" customWidth="1"/>
+    <col min="17" max="17" width="41.6640625" customWidth="1"/>
+    <col min="18" max="18" width="84.6640625" customWidth="1"/>
+    <col min="19" max="21" width="104.6640625" customWidth="1"/>
+    <col min="22" max="22" width="88.6640625" customWidth="1"/>
+    <col min="23" max="23" width="69.6640625" customWidth="1"/>
+    <col min="24" max="24" width="58.6640625" customWidth="1"/>
+    <col min="25" max="25" width="141.6640625" customWidth="1"/>
+    <col min="26" max="26" width="67.6640625" customWidth="1"/>
+    <col min="27" max="27" width="58.6640625" customWidth="1"/>
+    <col min="28" max="28" width="141.6640625" customWidth="1"/>
+    <col min="29" max="29" width="79.6640625" customWidth="1"/>
+    <col min="30" max="30" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>857</v>
       </c>
@@ -9642,7 +9680,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>869</v>
       </c>
@@ -9734,7 +9772,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>878</v>
       </c>
@@ -9814,7 +9852,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>888</v>
       </c>
@@ -9906,12 +9944,12 @@
         <v>278</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>900</v>
       </c>
@@ -9934,7 +9972,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>905</v>
       </c>
@@ -9957,7 +9995,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>907</v>
       </c>
@@ -9980,7 +10018,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>909</v>
       </c>
@@ -10003,7 +10041,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>910</v>
       </c>
@@ -10026,7 +10064,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>912</v>
       </c>
@@ -10049,7 +10087,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>913</v>
       </c>
@@ -10072,7 +10110,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>916</v>
       </c>
@@ -10095,7 +10133,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>917</v>
       </c>
@@ -10118,7 +10156,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>919</v>
       </c>
@@ -10141,7 +10179,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>920</v>
       </c>
@@ -10164,7 +10202,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>922</v>
       </c>
@@ -10187,7 +10225,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>923</v>
       </c>
@@ -10210,7 +10248,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>925</v>
       </c>
@@ -10233,7 +10271,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>926</v>
       </c>
@@ -10256,7 +10294,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>928</v>
       </c>
@@ -10279,7 +10317,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>929</v>
       </c>
@@ -10302,7 +10340,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>931</v>
       </c>
@@ -10325,7 +10363,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>932</v>
       </c>
@@ -10348,7 +10386,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>934</v>
       </c>
@@ -10371,7 +10409,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>935</v>
       </c>
@@ -10394,7 +10432,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>937</v>
       </c>
@@ -10417,7 +10455,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>938</v>
       </c>
@@ -10440,7 +10478,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>940</v>
       </c>
@@ -10463,7 +10501,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>941</v>
       </c>
@@ -10486,7 +10524,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>943</v>
       </c>
@@ -10509,7 +10547,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>944</v>
       </c>
@@ -10532,7 +10570,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>946</v>
       </c>
@@ -10555,7 +10593,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>947</v>
       </c>
@@ -10578,7 +10616,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>949</v>
       </c>
@@ -10601,7 +10639,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>950</v>
       </c>
@@ -10624,7 +10662,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>952</v>
       </c>
@@ -10647,7 +10685,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>953</v>
       </c>
@@ -10670,7 +10708,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>955</v>
       </c>
@@ -10693,7 +10731,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>956</v>
       </c>
@@ -10716,7 +10754,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>958</v>
       </c>
@@ -10739,7 +10777,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>959</v>
       </c>
@@ -10762,7 +10800,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>961</v>
       </c>
@@ -10785,7 +10823,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>962</v>
       </c>
@@ -10808,7 +10846,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>964</v>
       </c>
@@ -10831,7 +10869,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>965</v>
       </c>
@@ -10854,7 +10892,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>967</v>
       </c>
@@ -10877,7 +10915,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>968</v>
       </c>
@@ -10900,7 +10938,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>970</v>
       </c>
@@ -10923,7 +10961,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>971</v>
       </c>
@@ -10946,7 +10984,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>973</v>
       </c>
@@ -10969,7 +11007,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>974</v>
       </c>
@@ -10992,7 +11030,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>976</v>
       </c>
@@ -11021,34 +11059,36 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="71.7109375" customWidth="1"/>
-    <col min="2" max="2" width="62.7109375" customWidth="1"/>
-    <col min="3" max="3" width="186.7109375" customWidth="1"/>
-    <col min="4" max="4" width="66.7109375" customWidth="1"/>
-    <col min="5" max="5" width="67.7109375" customWidth="1"/>
-    <col min="6" max="6" width="69.7109375" customWidth="1"/>
-    <col min="7" max="7" width="70.7109375" customWidth="1"/>
-    <col min="8" max="8" width="59.7109375" customWidth="1"/>
-    <col min="9" max="9" width="141.7109375" customWidth="1"/>
-    <col min="10" max="10" width="59.7109375" customWidth="1"/>
-    <col min="11" max="11" width="76.7109375" customWidth="1"/>
-    <col min="12" max="12" width="91.7109375" customWidth="1"/>
-    <col min="13" max="13" width="58.7109375" customWidth="1"/>
-    <col min="14" max="14" width="141.7109375" customWidth="1"/>
-    <col min="15" max="15" width="62.7109375" customWidth="1"/>
-    <col min="16" max="16" width="50.7109375" customWidth="1"/>
-    <col min="17" max="17" width="56.7109375" customWidth="1"/>
-    <col min="18" max="18" width="99.7109375" customWidth="1"/>
+    <col min="1" max="1" width="71.6640625" customWidth="1"/>
+    <col min="2" max="2" width="62.6640625" customWidth="1"/>
+    <col min="3" max="3" width="186.6640625" customWidth="1"/>
+    <col min="4" max="4" width="66.6640625" customWidth="1"/>
+    <col min="5" max="5" width="67.6640625" customWidth="1"/>
+    <col min="6" max="6" width="69.6640625" customWidth="1"/>
+    <col min="7" max="7" width="70.6640625" customWidth="1"/>
+    <col min="8" max="8" width="59.6640625" customWidth="1"/>
+    <col min="9" max="9" width="141.6640625" customWidth="1"/>
+    <col min="10" max="10" width="59.6640625" customWidth="1"/>
+    <col min="11" max="11" width="76.6640625" customWidth="1"/>
+    <col min="12" max="12" width="91.6640625" customWidth="1"/>
+    <col min="13" max="13" width="58.6640625" customWidth="1"/>
+    <col min="14" max="14" width="141.6640625" customWidth="1"/>
+    <col min="15" max="15" width="62.6640625" customWidth="1"/>
+    <col min="16" max="16" width="50.6640625" customWidth="1"/>
+    <col min="17" max="17" width="56.6640625" customWidth="1"/>
+    <col min="18" max="18" width="99.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>868</v>
       </c>
@@ -11104,7 +11144,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>127</v>
       </c>
@@ -11160,7 +11200,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>189</v>
       </c>
@@ -11210,7 +11250,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>899</v>
       </c>
@@ -11266,12 +11306,12 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>904</v>
       </c>
@@ -11281,8 +11321,11 @@
       <c r="G6" t="s">
         <v>1023</v>
       </c>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="K6" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>915</v>
       </c>
@@ -11291,6 +11334,9 @@
       </c>
       <c r="G7" t="s">
         <v>1024</v>
+      </c>
+      <c r="K7" t="s">
+        <v>1141</v>
       </c>
     </row>
   </sheetData>
